--- a/Dataset/corruption_perceptions_index.xlsx
+++ b/Dataset/corruption_perceptions_index.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Boris\Documents\Fakultet\Master\SIAP\Projekat\Tabele\Pripremljene tabele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Boris\Documents\Fakultet\Master\SIAP\Projekat\Data-Mining\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1988,7 +1988,7 @@
   <dimension ref="A1:Y4087"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,6 +2035,9 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2050,9 +2053,6 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2064,6 +2064,9 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2079,9 +2082,6 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2093,6 +2093,9 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2108,9 +2111,6 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2122,6 +2122,9 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2137,9 +2140,6 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2151,6 +2151,9 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2166,9 +2169,6 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2180,6 +2180,9 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2195,9 +2198,6 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2209,6 +2209,9 @@
       <c r="C8" t="s">
         <v>47</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2224,9 +2227,6 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2238,6 +2238,9 @@
       <c r="C9" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2253,9 +2256,6 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2267,6 +2267,9 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2282,9 +2285,6 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2296,6 +2296,9 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2311,9 +2314,6 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2325,6 +2325,9 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2340,9 +2343,6 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2354,6 +2354,9 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2369,9 +2372,6 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2383,6 +2383,9 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2398,9 +2401,6 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2412,6 +2412,9 @@
       <c r="C15" t="s">
         <v>106</v>
       </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2427,9 +2430,6 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2441,6 +2441,9 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2456,11 +2459,8 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>117</v>
       </c>
@@ -2470,6 +2470,9 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2485,11 +2488,8 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>121</v>
       </c>
@@ -2499,6 +2499,9 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2514,11 +2517,8 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -2528,6 +2528,9 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2543,11 +2546,8 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>130</v>
       </c>
@@ -2557,6 +2557,9 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2572,11 +2575,8 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>132</v>
       </c>
@@ -2586,6 +2586,9 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2601,11 +2604,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>136</v>
       </c>
@@ -2615,6 +2615,9 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2630,11 +2633,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
@@ -2644,6 +2644,9 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2659,11 +2662,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>138</v>
       </c>
@@ -2673,6 +2673,9 @@
       <c r="C24" t="s">
         <v>79</v>
       </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2688,11 +2691,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>144</v>
       </c>
@@ -2702,6 +2702,9 @@
       <c r="C25" t="s">
         <v>145</v>
       </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2717,11 +2720,8 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -2731,6 +2731,9 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2746,11 +2749,8 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
@@ -2760,6 +2760,9 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2775,11 +2778,8 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>154</v>
       </c>
@@ -2789,6 +2789,9 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2804,11 +2807,8 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>158</v>
       </c>
@@ -2818,6 +2818,9 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2833,11 +2836,8 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>159</v>
       </c>
@@ -2847,6 +2847,9 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2862,11 +2865,8 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -2876,6 +2876,9 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2891,11 +2894,8 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>165</v>
       </c>
@@ -2905,6 +2905,9 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2920,11 +2923,8 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>167</v>
       </c>
@@ -2934,6 +2934,9 @@
       <c r="C33" t="s">
         <v>168</v>
       </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2949,11 +2952,8 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>174</v>
       </c>
@@ -2963,6 +2963,9 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2978,11 +2981,8 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
@@ -2992,6 +2992,9 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3007,11 +3010,8 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>181</v>
       </c>
@@ -3021,6 +3021,9 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3036,11 +3039,8 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>184</v>
       </c>
@@ -3050,6 +3050,9 @@
       <c r="C37" t="s">
         <v>185</v>
       </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3065,11 +3068,8 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>190</v>
       </c>
@@ -3079,6 +3079,9 @@
       <c r="C38" t="s">
         <v>40</v>
       </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3094,11 +3097,8 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>193</v>
       </c>
@@ -3108,6 +3108,9 @@
       <c r="C39" t="s">
         <v>32</v>
       </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3123,11 +3126,8 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>195</v>
       </c>
@@ -3137,6 +3137,9 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3152,11 +3155,8 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>197</v>
       </c>
@@ -3166,6 +3166,9 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3181,11 +3184,8 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>198</v>
       </c>
@@ -3195,6 +3195,9 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -3210,11 +3213,8 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>199</v>
       </c>
@@ -3224,6 +3224,9 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3239,11 +3242,8 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>200</v>
       </c>
@@ -3253,6 +3253,9 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -3268,11 +3271,8 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>201</v>
       </c>
@@ -3282,6 +3282,9 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3297,11 +3300,8 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>202</v>
       </c>
@@ -3311,6 +3311,9 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -3326,11 +3329,8 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>204</v>
       </c>
@@ -3340,6 +3340,9 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -3355,11 +3358,8 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>205</v>
       </c>
@@ -3369,6 +3369,9 @@
       <c r="C48" t="s">
         <v>1</v>
       </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3384,11 +3387,8 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>206</v>
       </c>
@@ -3398,6 +3398,9 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -3413,11 +3416,8 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>207</v>
       </c>
@@ -3427,6 +3427,9 @@
       <c r="C50" t="s">
         <v>1</v>
       </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3442,11 +3445,8 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -3456,6 +3456,9 @@
       <c r="C51" t="s">
         <v>141</v>
       </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3471,11 +3474,8 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
@@ -3485,6 +3485,9 @@
       <c r="C52" t="s">
         <v>1</v>
       </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3500,11 +3503,8 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>213</v>
       </c>
@@ -3514,6 +3514,9 @@
       <c r="C53" t="s">
         <v>1</v>
       </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -3529,11 +3532,8 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>214</v>
       </c>
@@ -3543,6 +3543,9 @@
       <c r="C54" t="s">
         <v>1</v>
       </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3558,11 +3561,8 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>216</v>
       </c>
@@ -3572,6 +3572,9 @@
       <c r="C55" t="s">
         <v>1</v>
       </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3587,11 +3590,8 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>217</v>
       </c>
@@ -3601,6 +3601,9 @@
       <c r="C56" t="s">
         <v>1</v>
       </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -3616,11 +3619,8 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>221</v>
       </c>
@@ -3630,6 +3630,9 @@
       <c r="C57" t="s">
         <v>1</v>
       </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3645,11 +3648,8 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>225</v>
       </c>
@@ -3659,6 +3659,9 @@
       <c r="C58" t="s">
         <v>1</v>
       </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3674,11 +3677,8 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>230</v>
       </c>
@@ -3688,6 +3688,9 @@
       <c r="C59" t="s">
         <v>108</v>
       </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3703,11 +3706,8 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>233</v>
       </c>
@@ -3717,6 +3717,9 @@
       <c r="C60" t="s">
         <v>1</v>
       </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3732,11 +3735,8 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>234</v>
       </c>
@@ -3746,6 +3746,9 @@
       <c r="C61" t="s">
         <v>1</v>
       </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3761,11 +3764,8 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>235</v>
       </c>
@@ -3775,6 +3775,9 @@
       <c r="C62" t="s">
         <v>1</v>
       </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3790,11 +3793,8 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>235</v>
       </c>
@@ -3804,6 +3804,9 @@
       <c r="C63" t="s">
         <v>1</v>
       </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3819,11 +3822,8 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>237</v>
       </c>
@@ -3833,6 +3833,9 @@
       <c r="C64" t="s">
         <v>238</v>
       </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3848,11 +3851,8 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>247</v>
       </c>
@@ -3862,6 +3862,9 @@
       <c r="C65" t="s">
         <v>1</v>
       </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3877,11 +3880,8 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -3891,6 +3891,9 @@
       <c r="C66" t="s">
         <v>1</v>
       </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3906,11 +3909,8 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>251</v>
       </c>
@@ -3920,6 +3920,9 @@
       <c r="C67" t="s">
         <v>1</v>
       </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3935,11 +3938,8 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>252</v>
       </c>
@@ -3949,6 +3949,9 @@
       <c r="C68" t="s">
         <v>1</v>
       </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3964,11 +3967,8 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>253</v>
       </c>
@@ -3978,6 +3978,9 @@
       <c r="C69" t="s">
         <v>1</v>
       </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3993,11 +3996,8 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>255</v>
       </c>
@@ -4007,6 +4007,9 @@
       <c r="C70" t="s">
         <v>12</v>
       </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -4022,11 +4025,8 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>257</v>
       </c>
@@ -4036,6 +4036,9 @@
       <c r="C71" t="s">
         <v>15</v>
       </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4051,11 +4054,8 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>259</v>
       </c>
@@ -4065,6 +4065,9 @@
       <c r="C72" t="s">
         <v>155</v>
       </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4080,11 +4083,8 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>261</v>
       </c>
@@ -4094,6 +4094,9 @@
       <c r="C73" t="s">
         <v>1</v>
       </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -4109,11 +4112,8 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>263</v>
       </c>
@@ -4123,6 +4123,9 @@
       <c r="C74" t="s">
         <v>1</v>
       </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -4138,11 +4141,8 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>266</v>
       </c>
@@ -4152,6 +4152,9 @@
       <c r="C75" t="s">
         <v>81</v>
       </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4167,11 +4170,8 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>270</v>
       </c>
@@ -4181,6 +4181,9 @@
       <c r="C76" t="s">
         <v>1</v>
       </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -4196,11 +4199,8 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>272</v>
       </c>
@@ -4210,6 +4210,9 @@
       <c r="C77" t="s">
         <v>1</v>
       </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4225,11 +4228,8 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>273</v>
       </c>
@@ -4239,6 +4239,9 @@
       <c r="C78" t="s">
         <v>274</v>
       </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4254,11 +4257,8 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>278</v>
       </c>
@@ -4268,6 +4268,9 @@
       <c r="C79" t="s">
         <v>99</v>
       </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4283,11 +4286,8 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>280</v>
       </c>
@@ -4297,6 +4297,9 @@
       <c r="C80" t="s">
         <v>1</v>
       </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4312,11 +4315,8 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
@@ -4326,6 +4326,9 @@
       <c r="C81" t="s">
         <v>1</v>
       </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4341,11 +4344,8 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>283</v>
       </c>
@@ -4355,6 +4355,9 @@
       <c r="C82" t="s">
         <v>1</v>
       </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4370,11 +4373,8 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>285</v>
       </c>
@@ -4384,6 +4384,9 @@
       <c r="C83" t="s">
         <v>1</v>
       </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4399,11 +4402,8 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>288</v>
       </c>
@@ -4413,6 +4413,9 @@
       <c r="C84" t="s">
         <v>64</v>
       </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -4428,11 +4431,8 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>292</v>
       </c>
@@ -4442,6 +4442,9 @@
       <c r="C85" t="s">
         <v>18</v>
       </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -4457,11 +4460,8 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>295</v>
       </c>
@@ -4471,6 +4471,9 @@
       <c r="C86" t="s">
         <v>85</v>
       </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -4486,11 +4489,8 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>298</v>
       </c>
@@ -4500,6 +4500,9 @@
       <c r="C87" t="s">
         <v>1</v>
       </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -4515,11 +4518,8 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>299</v>
       </c>
@@ -4529,6 +4529,9 @@
       <c r="C88" t="s">
         <v>26</v>
       </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4544,11 +4547,8 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>301</v>
       </c>
@@ -4558,6 +4558,9 @@
       <c r="C89" t="s">
         <v>1</v>
       </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -4573,11 +4576,8 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>302</v>
       </c>
@@ -4587,6 +4587,9 @@
       <c r="C90" t="s">
         <v>1</v>
       </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -4602,11 +4605,8 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>304</v>
       </c>
@@ -4616,6 +4616,9 @@
       <c r="C91" t="s">
         <v>1</v>
       </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -4631,11 +4634,8 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>307</v>
       </c>
@@ -4645,6 +4645,9 @@
       <c r="C92" t="s">
         <v>1</v>
       </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4660,11 +4663,8 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>308</v>
       </c>
@@ -4674,6 +4674,9 @@
       <c r="C93" t="s">
         <v>30</v>
       </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -4689,11 +4692,8 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>309</v>
       </c>
@@ -4703,6 +4703,9 @@
       <c r="C94" t="s">
         <v>61</v>
       </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -4718,11 +4721,8 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>311</v>
       </c>
@@ -4732,6 +4732,9 @@
       <c r="C95" t="s">
         <v>82</v>
       </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -4747,11 +4750,8 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>313</v>
       </c>
@@ -4761,6 +4761,9 @@
       <c r="C96" t="s">
         <v>242</v>
       </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4776,11 +4779,8 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>317</v>
       </c>
@@ -4790,6 +4790,9 @@
       <c r="C97" t="s">
         <v>15</v>
       </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -4805,11 +4808,8 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>318</v>
       </c>
@@ -4819,6 +4819,9 @@
       <c r="C98" t="s">
         <v>31</v>
       </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4834,11 +4837,8 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>320</v>
       </c>
@@ -4848,6 +4848,9 @@
       <c r="C99" t="s">
         <v>1</v>
       </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4863,11 +4866,8 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>322</v>
       </c>
@@ -4877,6 +4877,9 @@
       <c r="C100" t="s">
         <v>1</v>
       </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -4892,11 +4895,8 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>324</v>
       </c>
@@ -4906,6 +4906,9 @@
       <c r="C101" t="s">
         <v>289</v>
       </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -4921,11 +4924,8 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>326</v>
       </c>
@@ -4935,6 +4935,9 @@
       <c r="C102" t="s">
         <v>114</v>
       </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -4950,11 +4953,8 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>328</v>
       </c>
@@ -4964,6 +4964,9 @@
       <c r="C103" t="s">
         <v>222</v>
       </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -4979,11 +4982,8 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>331</v>
       </c>
@@ -4993,6 +4993,9 @@
       <c r="C104" t="s">
         <v>26</v>
       </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -5008,11 +5011,8 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>332</v>
       </c>
@@ -5022,6 +5022,9 @@
       <c r="C105" t="s">
         <v>119</v>
       </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -5037,11 +5040,8 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>334</v>
       </c>
@@ -5051,6 +5051,9 @@
       <c r="C106" t="s">
         <v>80</v>
       </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -5066,11 +5069,8 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>336</v>
       </c>
@@ -5080,6 +5080,9 @@
       <c r="C107" t="s">
         <v>296</v>
       </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -5095,11 +5098,8 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>338</v>
       </c>
@@ -5109,6 +5109,9 @@
       <c r="C108" t="s">
         <v>1</v>
       </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5124,11 +5127,8 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>339</v>
       </c>
@@ -5138,6 +5138,9 @@
       <c r="C109" t="s">
         <v>2</v>
       </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5153,11 +5156,8 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>341</v>
       </c>
@@ -5167,6 +5167,9 @@
       <c r="C110" t="s">
         <v>1</v>
       </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5182,11 +5185,8 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>343</v>
       </c>
@@ -5196,6 +5196,9 @@
       <c r="C111" t="s">
         <v>1</v>
       </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -5211,11 +5214,8 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>345</v>
       </c>
@@ -5225,6 +5225,9 @@
       <c r="C112" t="s">
         <v>1</v>
       </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -5240,11 +5243,8 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>347</v>
       </c>
@@ -5254,6 +5254,9 @@
       <c r="C113" t="s">
         <v>1</v>
       </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -5269,11 +5272,8 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>349</v>
       </c>
@@ -5283,6 +5283,9 @@
       <c r="C114" t="s">
         <v>1</v>
       </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -5298,11 +5301,8 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>351</v>
       </c>
@@ -5312,6 +5312,9 @@
       <c r="C115" t="s">
         <v>1</v>
       </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -5327,11 +5330,8 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>352</v>
       </c>
@@ -5341,6 +5341,9 @@
       <c r="C116" t="s">
         <v>1</v>
       </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -5356,11 +5359,8 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>353</v>
       </c>
@@ -5370,6 +5370,9 @@
       <c r="C117" t="s">
         <v>1</v>
       </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -5385,11 +5388,8 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>355</v>
       </c>
@@ -5399,6 +5399,9 @@
       <c r="C118" t="s">
         <v>1</v>
       </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -5414,11 +5417,8 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>356</v>
       </c>
@@ -5428,6 +5428,9 @@
       <c r="C119" t="s">
         <v>24</v>
       </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -5443,11 +5446,8 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>358</v>
       </c>
@@ -5457,6 +5457,9 @@
       <c r="C120" t="s">
         <v>1</v>
       </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -5472,11 +5475,8 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>359</v>
       </c>
@@ -5486,6 +5486,9 @@
       <c r="C121" t="s">
         <v>1</v>
       </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -5501,11 +5504,8 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>361</v>
       </c>
@@ -5515,6 +5515,9 @@
       <c r="C122" t="s">
         <v>1</v>
       </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -5530,11 +5533,8 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>363</v>
       </c>
@@ -5544,6 +5544,9 @@
       <c r="C123" t="s">
         <v>1</v>
       </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -5559,11 +5562,8 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>364</v>
       </c>
@@ -5573,6 +5573,9 @@
       <c r="C124" t="s">
         <v>1</v>
       </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -5588,11 +5591,8 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>366</v>
       </c>
@@ -5602,6 +5602,9 @@
       <c r="C125" t="s">
         <v>47</v>
       </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
@@ -5617,11 +5620,8 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>368</v>
       </c>
@@ -5631,6 +5631,9 @@
       <c r="C126" t="s">
         <v>1</v>
       </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -5646,11 +5649,8 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>369</v>
       </c>
@@ -5660,6 +5660,9 @@
       <c r="C127" t="s">
         <v>1</v>
       </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -5675,11 +5678,8 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>370</v>
       </c>
@@ -5689,6 +5689,9 @@
       <c r="C128" t="s">
         <v>1</v>
       </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -5704,11 +5707,8 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>371</v>
       </c>
@@ -5718,6 +5718,9 @@
       <c r="C129" t="s">
         <v>1</v>
       </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -5733,11 +5736,8 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>373</v>
       </c>
@@ -5747,6 +5747,9 @@
       <c r="C130" t="s">
         <v>107</v>
       </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -5762,11 +5765,8 @@
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>374</v>
       </c>
@@ -5776,6 +5776,9 @@
       <c r="C131" t="s">
         <v>112</v>
       </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -5791,11 +5794,8 @@
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>377</v>
       </c>
@@ -5805,6 +5805,9 @@
       <c r="C132" t="s">
         <v>1</v>
       </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -5820,11 +5823,8 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>379</v>
       </c>
@@ -5834,6 +5834,9 @@
       <c r="C133" t="s">
         <v>1</v>
       </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -5849,11 +5852,8 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>380</v>
       </c>
@@ -5863,6 +5863,9 @@
       <c r="C134" t="s">
         <v>1</v>
       </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -5878,11 +5881,8 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>382</v>
       </c>
@@ -5892,6 +5892,9 @@
       <c r="C135" t="s">
         <v>1</v>
       </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -5907,11 +5910,8 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
-      <c r="W135" s="2"/>
-      <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>384</v>
       </c>
@@ -5921,6 +5921,9 @@
       <c r="C136" t="s">
         <v>82</v>
       </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
@@ -5936,11 +5939,8 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
-      <c r="W136" s="2"/>
-      <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>386</v>
       </c>
@@ -5950,6 +5950,9 @@
       <c r="C137" t="s">
         <v>18</v>
       </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -5965,11 +5968,8 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
-      <c r="W137" s="2"/>
-      <c r="X137" s="2"/>
-      <c r="Y137" s="2"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>387</v>
       </c>
@@ -5979,6 +5979,9 @@
       <c r="C138" t="s">
         <v>1</v>
       </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -5994,11 +5997,8 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>389</v>
       </c>
@@ -6008,6 +6008,9 @@
       <c r="C139" t="s">
         <v>1</v>
       </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
@@ -6023,11 +6026,8 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>390</v>
       </c>
@@ -6037,6 +6037,9 @@
       <c r="C140" t="s">
         <v>1</v>
       </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -6052,11 +6055,8 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
-      <c r="W140" s="2"/>
-      <c r="X140" s="2"/>
-      <c r="Y140" s="2"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>392</v>
       </c>
@@ -6066,6 +6066,9 @@
       <c r="C141" t="s">
         <v>1</v>
       </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
@@ -6081,11 +6084,8 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
-      <c r="W141" s="2"/>
-      <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>394</v>
       </c>
@@ -6095,6 +6095,9 @@
       <c r="C142" t="s">
         <v>120</v>
       </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -6110,11 +6113,8 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>396</v>
       </c>
@@ -6124,6 +6124,9 @@
       <c r="C143" t="s">
         <v>1</v>
       </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -6139,11 +6142,8 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>397</v>
       </c>
@@ -6153,6 +6153,9 @@
       <c r="C144" t="s">
         <v>1</v>
       </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -6168,11 +6171,8 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>399</v>
       </c>
@@ -6182,6 +6182,9 @@
       <c r="C145" t="s">
         <v>112</v>
       </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -6197,11 +6200,8 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
-      <c r="W145" s="2"/>
-      <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>401</v>
       </c>
@@ -6211,6 +6211,9 @@
       <c r="C146" t="s">
         <v>1</v>
       </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -6226,11 +6229,8 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>402</v>
       </c>
@@ -6240,6 +6240,9 @@
       <c r="C147" t="s">
         <v>170</v>
       </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -6255,11 +6258,8 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>405</v>
       </c>
@@ -6269,6 +6269,9 @@
       <c r="C148" t="s">
         <v>241</v>
       </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -6284,11 +6287,8 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>408</v>
       </c>
@@ -6298,6 +6298,9 @@
       <c r="C149" t="s">
         <v>27</v>
       </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -6313,11 +6316,8 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>410</v>
       </c>
@@ -6327,6 +6327,9 @@
       <c r="C150" t="s">
         <v>1</v>
       </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -6342,11 +6345,8 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>412</v>
       </c>
@@ -6356,6 +6356,9 @@
       <c r="C151" t="s">
         <v>33</v>
       </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -6371,11 +6374,8 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
-      <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>414</v>
       </c>
@@ -6385,6 +6385,9 @@
       <c r="C152" t="s">
         <v>170</v>
       </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -6400,11 +6403,8 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>417</v>
       </c>
@@ -6414,6 +6414,9 @@
       <c r="C153" t="s">
         <v>1</v>
       </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -6429,11 +6432,8 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>419</v>
       </c>
@@ -6443,6 +6443,9 @@
       <c r="C154" t="s">
         <v>24</v>
       </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -6458,11 +6461,8 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>420</v>
       </c>
@@ -6472,6 +6472,9 @@
       <c r="C155" t="s">
         <v>1</v>
       </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -6487,11 +6490,8 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>421</v>
       </c>
@@ -6501,6 +6501,9 @@
       <c r="C156" t="s">
         <v>1</v>
       </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -6516,11 +6519,8 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>422</v>
       </c>
@@ -6530,6 +6530,9 @@
       <c r="C157" t="s">
         <v>1</v>
       </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -6545,11 +6548,8 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>424</v>
       </c>
@@ -6559,6 +6559,9 @@
       <c r="C158" t="s">
         <v>1</v>
       </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -6574,11 +6577,8 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>426</v>
       </c>
@@ -6588,6 +6588,9 @@
       <c r="C159" t="s">
         <v>4</v>
       </c>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -6603,11 +6606,8 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>428</v>
       </c>
@@ -6617,6 +6617,9 @@
       <c r="C160" t="s">
         <v>118</v>
       </c>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -6632,11 +6635,8 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>429</v>
       </c>
@@ -6646,6 +6646,9 @@
       <c r="C161" t="s">
         <v>18</v>
       </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -6661,11 +6664,8 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>431</v>
       </c>
@@ -6675,6 +6675,9 @@
       <c r="C162" t="s">
         <v>222</v>
       </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -6690,11 +6693,8 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>434</v>
       </c>
@@ -6704,6 +6704,9 @@
       <c r="C163" t="s">
         <v>267</v>
       </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -6719,11 +6722,8 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>435</v>
       </c>
@@ -6733,6 +6733,9 @@
       <c r="C164" t="s">
         <v>1</v>
       </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -6748,11 +6751,8 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>436</v>
       </c>
@@ -6762,6 +6762,9 @@
       <c r="C165" t="s">
         <v>1</v>
       </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -6777,11 +6780,8 @@
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>438</v>
       </c>
@@ -6791,6 +6791,9 @@
       <c r="C166" t="s">
         <v>27</v>
       </c>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -6806,11 +6809,8 @@
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>440</v>
       </c>
@@ -6820,6 +6820,9 @@
       <c r="C167" t="s">
         <v>13</v>
       </c>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -6835,11 +6838,8 @@
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>441</v>
       </c>
@@ -6849,6 +6849,9 @@
       <c r="C168" t="s">
         <v>1</v>
       </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -6864,11 +6867,8 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>443</v>
       </c>
@@ -6878,6 +6878,9 @@
       <c r="C169" t="s">
         <v>1</v>
       </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -6893,11 +6896,8 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>445</v>
       </c>
@@ -6907,6 +6907,9 @@
       <c r="C170" t="s">
         <v>1</v>
       </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -6922,11 +6925,8 @@
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>448</v>
       </c>
@@ -6936,6 +6936,9 @@
       <c r="C171" t="s">
         <v>1</v>
       </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -6951,11 +6954,8 @@
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>450</v>
       </c>
@@ -6965,6 +6965,9 @@
       <c r="C172" t="s">
         <v>1</v>
       </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -6980,11 +6983,8 @@
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>451</v>
       </c>
@@ -6994,6 +6994,9 @@
       <c r="C173" t="s">
         <v>1</v>
       </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -7009,11 +7012,8 @@
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>453</v>
       </c>
@@ -7023,6 +7023,9 @@
       <c r="C174" t="s">
         <v>1</v>
       </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
@@ -7038,11 +7041,8 @@
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>455</v>
       </c>
@@ -7052,6 +7052,9 @@
       <c r="C175" t="s">
         <v>18</v>
       </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7067,11 +7070,8 @@
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>457</v>
       </c>
@@ -7081,6 +7081,9 @@
       <c r="C176" t="s">
         <v>1</v>
       </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -7096,11 +7099,8 @@
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>459</v>
       </c>
@@ -7110,6 +7110,9 @@
       <c r="C177" t="s">
         <v>1</v>
       </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -7125,11 +7128,8 @@
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>460</v>
       </c>
@@ -7139,6 +7139,9 @@
       <c r="C178" t="s">
         <v>1</v>
       </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -7154,11 +7157,8 @@
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
-      <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>461</v>
       </c>
@@ -7168,6 +7168,9 @@
       <c r="C179" t="s">
         <v>1</v>
       </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -7183,11 +7186,8 @@
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
-      <c r="X179" s="2"/>
-      <c r="Y179" s="2"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>463</v>
       </c>
@@ -7197,6 +7197,9 @@
       <c r="C180" t="s">
         <v>1</v>
       </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -7212,11 +7215,8 @@
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>465</v>
       </c>
@@ -7226,6 +7226,9 @@
       <c r="C181" t="s">
         <v>314</v>
       </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -7241,11 +7244,8 @@
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>467</v>
       </c>
@@ -7255,6 +7255,9 @@
       <c r="C182" t="s">
         <v>1</v>
       </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
@@ -7270,11 +7273,8 @@
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>468</v>
       </c>
@@ -7284,6 +7284,9 @@
       <c r="C183" t="s">
         <v>106</v>
       </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -7299,11 +7302,8 @@
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
-      <c r="W183" s="2"/>
-      <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>469</v>
       </c>
@@ -7313,6 +7313,9 @@
       <c r="C184" t="s">
         <v>1</v>
       </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
@@ -7328,11 +7331,8 @@
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>471</v>
       </c>
@@ -7342,6 +7342,9 @@
       <c r="C185" t="s">
         <v>1</v>
       </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
@@ -7357,11 +7360,8 @@
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>473</v>
       </c>
@@ -7371,6 +7371,9 @@
       <c r="C186" t="s">
         <v>1</v>
       </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
@@ -7386,11 +7389,8 @@
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
-      <c r="X186" s="2"/>
-      <c r="Y186" s="2"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>476</v>
       </c>
@@ -7400,6 +7400,9 @@
       <c r="C187" t="s">
         <v>126</v>
       </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -7415,11 +7418,8 @@
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
-      <c r="W187" s="2"/>
-      <c r="X187" s="2"/>
-      <c r="Y187" s="2"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>478</v>
       </c>
@@ -7429,6 +7429,9 @@
       <c r="C188" t="s">
         <v>109</v>
       </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -7444,11 +7447,8 @@
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
-      <c r="W188" s="2"/>
-      <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>479</v>
       </c>
@@ -7458,6 +7458,9 @@
       <c r="C189" t="s">
         <v>1</v>
       </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -7473,11 +7476,8 @@
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
-      <c r="W189" s="2"/>
-      <c r="X189" s="2"/>
-      <c r="Y189" s="2"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>481</v>
       </c>
@@ -7487,6 +7487,9 @@
       <c r="C190" t="s">
         <v>79</v>
       </c>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -7502,11 +7505,8 @@
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
       <c r="V190" s="2"/>
-      <c r="W190" s="2"/>
-      <c r="X190" s="2"/>
-      <c r="Y190" s="2"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>484</v>
       </c>
@@ -7516,6 +7516,9 @@
       <c r="C191" t="s">
         <v>1</v>
       </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -7531,11 +7534,8 @@
       <c r="T191" s="2"/>
       <c r="U191" s="2"/>
       <c r="V191" s="2"/>
-      <c r="W191" s="2"/>
-      <c r="X191" s="2"/>
-      <c r="Y191" s="2"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>485</v>
       </c>
@@ -7545,6 +7545,9 @@
       <c r="C192" t="s">
         <v>1</v>
       </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -7560,11 +7563,8 @@
       <c r="T192" s="2"/>
       <c r="U192" s="2"/>
       <c r="V192" s="2"/>
-      <c r="W192" s="2"/>
-      <c r="X192" s="2"/>
-      <c r="Y192" s="2"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>488</v>
       </c>
@@ -7574,6 +7574,9 @@
       <c r="C193" t="s">
         <v>1</v>
       </c>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -7589,11 +7592,8 @@
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
       <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>489</v>
       </c>
@@ -7603,6 +7603,9 @@
       <c r="C194" t="s">
         <v>1</v>
       </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
@@ -7618,11 +7621,8 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
-      <c r="W194" s="2"/>
-      <c r="X194" s="2"/>
-      <c r="Y194" s="2"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>490</v>
       </c>
@@ -7632,6 +7632,9 @@
       <c r="C195" t="s">
         <v>240</v>
       </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -7647,11 +7650,8 @@
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
-      <c r="W195" s="2"/>
-      <c r="X195" s="2"/>
-      <c r="Y195" s="2"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>491</v>
       </c>
@@ -7661,6 +7661,9 @@
       <c r="C196" t="s">
         <v>169</v>
       </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -7676,11 +7679,8 @@
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
-      <c r="W196" s="2"/>
-      <c r="X196" s="2"/>
-      <c r="Y196" s="2"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>492</v>
       </c>
@@ -7690,6 +7690,9 @@
       <c r="C197" t="s">
         <v>1</v>
       </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -7705,11 +7708,8 @@
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
-      <c r="W197" s="2"/>
-      <c r="X197" s="2"/>
-      <c r="Y197" s="2"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>494</v>
       </c>
@@ -7719,6 +7719,9 @@
       <c r="C198" t="s">
         <v>1</v>
       </c>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -7734,11 +7737,8 @@
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>495</v>
       </c>
@@ -7748,6 +7748,9 @@
       <c r="C199" t="s">
         <v>112</v>
       </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -7763,11 +7766,8 @@
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
       <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>497</v>
       </c>
@@ -7777,6 +7777,9 @@
       <c r="C200" t="s">
         <v>1</v>
       </c>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
@@ -7792,11 +7795,8 @@
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
       <c r="V200" s="2"/>
-      <c r="W200" s="2"/>
-      <c r="X200" s="2"/>
-      <c r="Y200" s="2"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>499</v>
       </c>
@@ -7806,6 +7806,9 @@
       <c r="C201" t="s">
         <v>33</v>
       </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -7821,11 +7824,8 @@
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
       <c r="V201" s="2"/>
-      <c r="W201" s="2"/>
-      <c r="X201" s="2"/>
-      <c r="Y201" s="2"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>501</v>
       </c>
@@ -7835,6 +7835,9 @@
       <c r="C202" t="s">
         <v>27</v>
       </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
@@ -7850,11 +7853,8 @@
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
       <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
-      <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>503</v>
       </c>
@@ -7864,6 +7864,9 @@
       <c r="C203" t="s">
         <v>1</v>
       </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
@@ -7879,11 +7882,8 @@
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
       <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-      <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>504</v>
       </c>
@@ -7893,6 +7893,9 @@
       <c r="C204" t="s">
         <v>1</v>
       </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
@@ -7908,11 +7911,8 @@
       <c r="T204" s="2"/>
       <c r="U204" s="2"/>
       <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
-      <c r="X204" s="2"/>
-      <c r="Y204" s="2"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>505</v>
       </c>
@@ -7922,6 +7922,9 @@
       <c r="C205" t="s">
         <v>1</v>
       </c>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
@@ -7937,11 +7940,8 @@
       <c r="T205" s="2"/>
       <c r="U205" s="2"/>
       <c r="V205" s="2"/>
-      <c r="W205" s="2"/>
-      <c r="X205" s="2"/>
-      <c r="Y205" s="2"/>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>506</v>
       </c>
@@ -7951,6 +7951,9 @@
       <c r="C206" t="s">
         <v>1</v>
       </c>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -7966,11 +7969,8 @@
       <c r="T206" s="2"/>
       <c r="U206" s="2"/>
       <c r="V206" s="2"/>
-      <c r="W206" s="2"/>
-      <c r="X206" s="2"/>
-      <c r="Y206" s="2"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>507</v>
       </c>
@@ -7980,6 +7980,9 @@
       <c r="C207" t="s">
         <v>1</v>
       </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
@@ -7995,11 +7998,8 @@
       <c r="T207" s="2"/>
       <c r="U207" s="2"/>
       <c r="V207" s="2"/>
-      <c r="W207" s="2"/>
-      <c r="X207" s="2"/>
-      <c r="Y207" s="2"/>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>509</v>
       </c>
@@ -8009,6 +8009,9 @@
       <c r="C208" t="s">
         <v>1</v>
       </c>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
@@ -8024,11 +8027,8 @@
       <c r="T208" s="2"/>
       <c r="U208" s="2"/>
       <c r="V208" s="2"/>
-      <c r="W208" s="2"/>
-      <c r="X208" s="2"/>
-      <c r="Y208" s="2"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>511</v>
       </c>
@@ -8038,6 +8038,9 @@
       <c r="C209" t="s">
         <v>1</v>
       </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -8053,11 +8056,8 @@
       <c r="T209" s="2"/>
       <c r="U209" s="2"/>
       <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>512</v>
       </c>
@@ -8067,6 +8067,9 @@
       <c r="C210" t="s">
         <v>82</v>
       </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -8082,11 +8085,8 @@
       <c r="T210" s="2"/>
       <c r="U210" s="2"/>
       <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>514</v>
       </c>
@@ -8096,6 +8096,9 @@
       <c r="C211" t="s">
         <v>16</v>
       </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -8111,11 +8114,8 @@
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
       <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>516</v>
       </c>
@@ -8125,6 +8125,9 @@
       <c r="C212" t="s">
         <v>1</v>
       </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
@@ -8140,11 +8143,8 @@
       <c r="T212" s="2"/>
       <c r="U212" s="2"/>
       <c r="V212" s="2"/>
-      <c r="W212" s="2"/>
-      <c r="X212" s="2"/>
-      <c r="Y212" s="2"/>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>517</v>
       </c>
@@ -8154,6 +8154,9 @@
       <c r="C213" t="s">
         <v>14</v>
       </c>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
@@ -8169,11 +8172,8 @@
       <c r="T213" s="2"/>
       <c r="U213" s="2"/>
       <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>518</v>
       </c>
@@ -8183,6 +8183,9 @@
       <c r="C214" t="s">
         <v>25</v>
       </c>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -8198,11 +8201,8 @@
       <c r="T214" s="2"/>
       <c r="U214" s="2"/>
       <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>519</v>
       </c>
@@ -8212,6 +8212,9 @@
       <c r="C215" t="s">
         <v>1</v>
       </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -8227,11 +8230,8 @@
       <c r="T215" s="2"/>
       <c r="U215" s="2"/>
       <c r="V215" s="2"/>
-      <c r="W215" s="2"/>
-      <c r="X215" s="2"/>
-      <c r="Y215" s="2"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>522</v>
       </c>
@@ -8241,6 +8241,9 @@
       <c r="C216" t="s">
         <v>47</v>
       </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
@@ -8256,11 +8259,8 @@
       <c r="T216" s="2"/>
       <c r="U216" s="2"/>
       <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>524</v>
       </c>
@@ -8270,6 +8270,9 @@
       <c r="C217" t="s">
         <v>58</v>
       </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
@@ -8285,11 +8288,8 @@
       <c r="T217" s="2"/>
       <c r="U217" s="2"/>
       <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>526</v>
       </c>
@@ -8299,6 +8299,9 @@
       <c r="C218" t="s">
         <v>209</v>
       </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
@@ -8314,11 +8317,8 @@
       <c r="T218" s="2"/>
       <c r="U218" s="2"/>
       <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>528</v>
       </c>
@@ -8328,6 +8328,9 @@
       <c r="C219" t="s">
         <v>1</v>
       </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
@@ -8343,11 +8346,8 @@
       <c r="T219" s="2"/>
       <c r="U219" s="2"/>
       <c r="V219" s="2"/>
-      <c r="W219" s="2"/>
-      <c r="X219" s="2"/>
-      <c r="Y219" s="2"/>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>529</v>
       </c>
@@ -8357,6 +8357,9 @@
       <c r="C220" t="s">
         <v>1</v>
       </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
@@ -8372,11 +8375,8 @@
       <c r="T220" s="2"/>
       <c r="U220" s="2"/>
       <c r="V220" s="2"/>
-      <c r="W220" s="2"/>
-      <c r="X220" s="2"/>
-      <c r="Y220" s="2"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>531</v>
       </c>
@@ -8386,6 +8386,9 @@
       <c r="C221" t="s">
         <v>1</v>
       </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
@@ -8401,11 +8404,8 @@
       <c r="T221" s="2"/>
       <c r="U221" s="2"/>
       <c r="V221" s="2"/>
-      <c r="W221" s="2"/>
-      <c r="X221" s="2"/>
-      <c r="Y221" s="2"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>533</v>
       </c>
@@ -8415,6 +8415,9 @@
       <c r="C222" t="s">
         <v>12</v>
       </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -8430,11 +8433,8 @@
       <c r="T222" s="2"/>
       <c r="U222" s="2"/>
       <c r="V222" s="2"/>
-      <c r="W222" s="2"/>
-      <c r="X222" s="2"/>
-      <c r="Y222" s="2"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>535</v>
       </c>
@@ -8444,6 +8444,9 @@
       <c r="C223" t="s">
         <v>2</v>
       </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
@@ -8459,11 +8462,8 @@
       <c r="T223" s="2"/>
       <c r="U223" s="2"/>
       <c r="V223" s="2"/>
-      <c r="W223" s="2"/>
-      <c r="X223" s="2"/>
-      <c r="Y223" s="2"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>536</v>
       </c>
@@ -8473,6 +8473,9 @@
       <c r="C224" t="s">
         <v>1</v>
       </c>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
@@ -8488,11 +8491,8 @@
       <c r="T224" s="2"/>
       <c r="U224" s="2"/>
       <c r="V224" s="2"/>
-      <c r="W224" s="2"/>
-      <c r="X224" s="2"/>
-      <c r="Y224" s="2"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>537</v>
       </c>
@@ -8502,6 +8502,9 @@
       <c r="C225" t="s">
         <v>1</v>
       </c>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
@@ -8517,11 +8520,8 @@
       <c r="T225" s="2"/>
       <c r="U225" s="2"/>
       <c r="V225" s="2"/>
-      <c r="W225" s="2"/>
-      <c r="X225" s="2"/>
-      <c r="Y225" s="2"/>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>539</v>
       </c>
@@ -8531,6 +8531,9 @@
       <c r="C226" t="s">
         <v>27</v>
       </c>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
@@ -8546,11 +8549,8 @@
       <c r="T226" s="2"/>
       <c r="U226" s="2"/>
       <c r="V226" s="2"/>
-      <c r="W226" s="2"/>
-      <c r="X226" s="2"/>
-      <c r="Y226" s="2"/>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>540</v>
       </c>
@@ -8560,6 +8560,9 @@
       <c r="C227" t="s">
         <v>40</v>
       </c>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
@@ -8575,11 +8578,8 @@
       <c r="T227" s="2"/>
       <c r="U227" s="2"/>
       <c r="V227" s="2"/>
-      <c r="W227" s="2"/>
-      <c r="X227" s="2"/>
-      <c r="Y227" s="2"/>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>541</v>
       </c>
@@ -8589,6 +8589,9 @@
       <c r="C228" t="s">
         <v>109</v>
       </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
@@ -8604,11 +8607,8 @@
       <c r="T228" s="2"/>
       <c r="U228" s="2"/>
       <c r="V228" s="2"/>
-      <c r="W228" s="2"/>
-      <c r="X228" s="2"/>
-      <c r="Y228" s="2"/>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>11</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>23</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>29</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>39</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>43</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>46</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>57</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>69</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>75</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>78</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>90</v>
       </c>
